--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1431559.455653192</v>
+        <v>1429671.874136791</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11189379.84911155</v>
+        <v>11189379.84911156</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>312.3347633491539</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>87.5704922003158</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.31590541686258</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>167.6037769629272</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>96.95377689311815</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>194.027083666163</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>26.53815412835747</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850756</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>129.0246247964037</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>150.1786334660153</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.6248994057464</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>21.06290601687076</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>262.4553685891676</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.6907158639457</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>219.4142293066751</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>117.9242040559331</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>186.6482437087914</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>24.01153903325467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>43.03801681746473</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>195.0964805515257</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>74.46989343623078</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>104.5648506940242</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.043564470071</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965554</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>90.21779139437443</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348208</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>93.71057173897931</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571518</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523599</v>
       </c>
       <c r="S31" t="n">
-        <v>129.1085948010306</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080342</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604804</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.381396723538</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287496</v>
       </c>
       <c r="U34" t="n">
         <v>218.1054622689367</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>567.3073332979627</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C2" t="n">
-        <v>567.3073332979627</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>567.3073332979627</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>567.3073332979627</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>156.3214285083552</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>142.3980244469461</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X2" t="n">
-        <v>1344.046505337896</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9071733620844</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="3">
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761947</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482878</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359521</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355898</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1507.652482896327</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C5" t="n">
-        <v>1507.652482896327</v>
+        <v>1878.345729894537</v>
       </c>
       <c r="D5" t="n">
-        <v>1507.652482896327</v>
+        <v>1520.080031287786</v>
       </c>
       <c r="E5" t="n">
-        <v>1121.864230298082</v>
+        <v>1134.291778689542</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>723.3058738999346</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>305.3420657981214</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1507.652482896327</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="6">
@@ -4653,13 +4653,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
         <v>1222.906241876376</v>
@@ -4790,64 +4790,64 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.342874726952</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2339.279987383381</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1986.511332113267</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1613.045573852188</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1222.906241876376</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551156</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5036,13 +5036,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,22 +5051,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,7 +5115,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
@@ -5124,13 +5124,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>550.2226492899335</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698952</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.0201325405894</v>
+        <v>565.0010960824698</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405893</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352016</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W13" t="n">
-        <v>954.814612315055</v>
+        <v>785.7936752259999</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170377</v>
+        <v>785.7936752259999</v>
       </c>
       <c r="Y13" t="n">
-        <v>573.668597370829</v>
+        <v>565.0010960824698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1908.095276920732</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2187.63534213943</v>
+        <v>2227.840212610279</v>
       </c>
       <c r="P15" t="n">
-        <v>2392.657822921639</v>
+        <v>2432.862693392488</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.130185042679</v>
+        <v>696.2714843595161</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>527.3353014316092</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1010.024422429057</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>755.3399342231697</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W16" t="n">
-        <v>465.9227641862091</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X16" t="n">
-        <v>465.9227641862091</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="Y16" t="n">
-        <v>245.130185042679</v>
+        <v>877.9199491897558</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.0432218861032</v>
+        <v>506.0324822735074</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581963</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581963</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581963</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,7 +5689,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1077.365725820247</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>822.6812376143603</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>822.6812376143603</v>
+        <v>954.8146123150549</v>
       </c>
       <c r="X19" t="n">
-        <v>594.6916867163429</v>
+        <v>726.8250614170375</v>
       </c>
       <c r="Y19" t="n">
-        <v>594.6916867163429</v>
+        <v>506.0324822735074</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>531.3977182706313</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
         <v>265.3924131404652</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>775.602162320956</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706313</v>
+        <v>775.602162320956</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706313</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="X22" t="n">
-        <v>531.3977182706313</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y22" t="n">
-        <v>531.3977182706313</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5993,7 +5993,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6014,25 +6014,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581961</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581961</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="U25" t="n">
-        <v>1050.956765431391</v>
+        <v>1209.787631771462</v>
       </c>
       <c r="V25" t="n">
-        <v>796.2722772255036</v>
+        <v>955.103143565575</v>
       </c>
       <c r="W25" t="n">
-        <v>506.8551071885429</v>
+        <v>665.6859735286146</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>437.6964226305973</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,34 +6242,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>729.1316371486755</v>
+        <v>265.392413140465</v>
       </c>
       <c r="C28" t="n">
-        <v>560.1954542207686</v>
+        <v>265.392413140465</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207686</v>
+        <v>265.392413140465</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404651</v>
       </c>
       <c r="F28" t="n">
         <v>265.3924131404652</v>
@@ -6385,13 +6385,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6403,31 +6403,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>990.8540049630326</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609663</v>
+        <v>701.7253661765909</v>
       </c>
       <c r="V28" t="n">
-        <v>910.7801019789151</v>
+        <v>447.0408779707042</v>
       </c>
       <c r="W28" t="n">
-        <v>910.7801019789151</v>
+        <v>447.0408779707047</v>
       </c>
       <c r="X28" t="n">
-        <v>910.7801019789151</v>
+        <v>447.0408779707047</v>
       </c>
       <c r="Y28" t="n">
-        <v>910.7801019789152</v>
+        <v>447.0408779707047</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,16 +6479,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>508.5930908928561</v>
+        <v>658.7225911205043</v>
       </c>
       <c r="C31" t="n">
-        <v>395.41777324632</v>
+        <v>545.5472734739678</v>
       </c>
       <c r="D31" t="n">
-        <v>395.41777324632</v>
+        <v>451.1914993430026</v>
       </c>
       <c r="E31" t="n">
-        <v>395.41777324632</v>
+        <v>451.1914993430026</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297804</v>
+        <v>360.0624171264629</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>247.647960727654</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569679</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933496</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667501</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.668872196204</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021645</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056072</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899268</v>
       </c>
       <c r="S31" t="n">
-        <v>1805.713341034831</v>
+        <v>1736.652680096191</v>
       </c>
       <c r="T31" t="n">
-        <v>1637.688791105708</v>
+        <v>1568.628130167067</v>
       </c>
       <c r="U31" t="n">
-        <v>1404.321017600637</v>
+        <v>1335.260356661996</v>
       </c>
       <c r="V31" t="n">
-        <v>1205.397394676121</v>
+        <v>1335.260356661996</v>
       </c>
       <c r="W31" t="n">
-        <v>971.7410899205308</v>
+        <v>1101.604051906406</v>
       </c>
       <c r="X31" t="n">
-        <v>799.5124043038843</v>
+        <v>929.375366289759</v>
       </c>
       <c r="Y31" t="n">
-        <v>634.480690441725</v>
+        <v>764.3436524275994</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6719,13 +6719,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
@@ -6883,25 +6883,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7072,16 +7072,16 @@
         <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7093,10 +7093,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,7 +7129,7 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504509</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7436,25 +7436,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7546,19 +7546,19 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,43 +7631,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7801,13 +7801,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270191</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627886</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714835</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,16 +9015,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>145.2351313103793</v>
+        <v>104.6241510367944</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9243,25 +9243,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>29.47535963978214</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9480,25 +9480,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>17.06818763261256</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.95975394634834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>127.5525670013416</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>23.78198380940972</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>56.55610523468214</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>66.82312309190226</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>49.32261704269474</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>99.58910868978592</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U25" t="n">
-        <v>262.2258133653227</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>175.5466365346301</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>26.45108050686344</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>177.6677498875972</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>20.06387285935627</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>91.23070601801236</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571493</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523574</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>13.60895855401554</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>196.9343866952712</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>-8.586287364452779e-13</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>940305.1042799108</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>940305.1042799108</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="11">
@@ -26317,25 +26317,25 @@
         <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="K2" t="n">
         <v>467845.4579470612</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.171927646024903e-11</v>
+        <v>7.958078640513122e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284563</v>
+        <v>44162.60530284538</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086688</v>
+        <v>10342.9068008671</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.6053028454</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106726</v>
+        <v>40339.23010106718</v>
       </c>
       <c r="L4" t="n">
         <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="N4" t="n">
+        <v>44593.39482819116</v>
+      </c>
+      <c r="O4" t="n">
         <v>44593.39482819117</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>44593.3948281912</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26485,19 +26485,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26509,7 +26509,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>223607.071822029</v>
       </c>
       <c r="D6" t="n">
-        <v>223607.071822029</v>
+        <v>223607.0718220291</v>
       </c>
       <c r="E6" t="n">
-        <v>-189638.5513141184</v>
+        <v>-189736.0104400904</v>
       </c>
       <c r="F6" t="n">
-        <v>335521.4851627779</v>
+        <v>335424.0260368055</v>
       </c>
       <c r="G6" t="n">
-        <v>335521.4851627778</v>
+        <v>335424.0260368056</v>
       </c>
       <c r="H6" t="n">
-        <v>335521.4851627779</v>
+        <v>335424.0260368055</v>
       </c>
       <c r="I6" t="n">
-        <v>335521.4851627778</v>
+        <v>335424.0260368055</v>
       </c>
       <c r="J6" t="n">
-        <v>159098.2659701848</v>
+        <v>159000.8068442128</v>
       </c>
       <c r="K6" t="n">
-        <v>286715.4140129255</v>
+        <v>286696.9202749916</v>
       </c>
       <c r="L6" t="n">
-        <v>319447.6102228793</v>
+        <v>319447.6102228791</v>
       </c>
       <c r="M6" t="n">
-        <v>194989.5017899091</v>
+        <v>194989.5017899092</v>
       </c>
       <c r="N6" t="n">
-        <v>329790.5170237463</v>
+        <v>329790.5170237464</v>
       </c>
       <c r="O6" t="n">
-        <v>329790.5170237463</v>
+        <v>329790.5170237464</v>
       </c>
       <c r="P6" t="n">
-        <v>285627.9117209006</v>
+        <v>285627.9117209008</v>
       </c>
     </row>
   </sheetData>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.714909557531129e-14</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010836</v>
+        <v>12.92863350108388</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855674</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.714909557531129e-14</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855672</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>70.39907831432669</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>236.3522805640413</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>120.1051426060687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>125.6900249618412</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>239.2722687787843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>226.968995871239</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>10.74592769735781</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>92.49591467042799</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,16 +27907,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>224.6860133799318</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339348</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401873</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28573,13 +28573,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31534,7 +31534,7 @@
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119866</v>
@@ -31543,19 +31543,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q10" t="n">
         <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31713,7 +31713,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>265.0957540022528</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315247</v>
@@ -35662,7 +35662,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35735,16 +35735,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.2481640954534</v>
+        <v>192.6371838218685</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35820,7 +35820,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
         <v>39.22569997187476</v>
@@ -35963,25 +35963,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36057,7 +36057,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
         <v>39.22569997187476</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36200,25 +36200,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36294,7 +36294,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
         <v>39.22569997187476</v>
@@ -36361,7 +36361,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221117</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556563</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
         <v>39.22569997187476</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556562</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412233</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584673</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084853</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075293</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341604</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491596</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403576</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043156</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
